--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>864.3883010214183</v>
+        <v>116.2438725227562</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7059998512268066</v>
+        <v>0.2760000228881836</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.25830102142056</v>
+        <v>40.24387252275617</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>568.1499999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.9799999999992</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.35124120223165</v>
+        <v>20.46175580952919</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>24.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>22.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1549999999994</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>157.754999999999</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>166.0149999999993</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.9849999999992</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>168.7299999999997</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>210.05</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>201.3050000000009</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>209.9450000000011</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>210.3250000000013</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.4899999999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999884</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.7749999999991</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999896</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999907</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.7399999999988</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36500000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>234.3749999999987</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>257.4949999999989</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>248.844999999998</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>259.1450000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>210.05</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>201.3050000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>209.9450000000011</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>210.3250000000013</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.4899999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>234.3749999999987</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>245.1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>257.4949999999989</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>248.844999999998</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>259.1450000000006</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305000000000859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.945000000001073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.32500000000132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.489999999999924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>34.37499999999875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>45.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>57.4949999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.84499999999797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>59.14500000000062</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.51499999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.739999999999884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.039999999999877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,116 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
